--- a/medicine/Sexualité et sexologie/Adrénarche/Adrénarche.xlsx
+++ b/medicine/Sexualité et sexologie/Adrénarche/Adrénarche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adr%C3%A9narche</t>
+          <t>Adrénarche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adrénarche est un stade précoce de la maturation sexuelle qui se produit chez certains primates supérieurs et chez l'homme, culmine généralement vers l'âge de 20 ans[1],[2], et est impliquée dans le développement des poils pubiens, des odeurs corporelles, de la peau grasse, des axillaires cheveux, de l'augmentation de la libido et de l'acné légère.
-Au cours de l'adrénarche, les glandes surrénales sécrètent des niveaux accrus d' androgènes surrénaliens faibles, y compris la DHEA et l'androstènedione, mais sans augmentation des niveaux de cortisol. L'adrénarche est le résultat du développement d'une nouvelle zone du cortex surrénalien, la zone réticulaire[3]. L'adrénarche est un processus lié à la puberté, mais distinct de la maturation et de la fonction de l'axe hypothalamo-hypophyso-gonadique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adrénarche est un stade précoce de la maturation sexuelle qui se produit chez certains primates supérieurs et chez l'homme, culmine généralement vers l'âge de 20 ans et est impliquée dans le développement des poils pubiens, des odeurs corporelles, de la peau grasse, des axillaires cheveux, de l'augmentation de la libido et de l'acné légère.
+Au cours de l'adrénarche, les glandes surrénales sécrètent des niveaux accrus d' androgènes surrénaliens faibles, y compris la DHEA et l'androstènedione, mais sans augmentation des niveaux de cortisol. L'adrénarche est le résultat du développement d'une nouvelle zone du cortex surrénalien, la zone réticulaire. L'adrénarche est un processus lié à la puberté, mais distinct de la maturation et de la fonction de l'axe hypothalamo-hypophyso-gonadique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adr%C3%A9narche</t>
+          <t>Adrénarche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Apparition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adrénarche survient entre 6 et 20 ans[4],[5]. Après la première année de vie, les glandes surrénales sécrètent de très faibles niveaux d'androgènes surrénaliens[1].
-L'adrénarche débute en moyenne entre 5 et 8 ans chez les filles et entre 7 et 11 ans chez les garçons, et précède la puberté d'environ 2 ans[1],[4],[5]. Contrairement aux changements physiques qui se produisent pendant la puberté, l'adrénarche est avant tout un stade de développement émotionnel et psychologique[6].
-Elle se poursuit tout au long de la puberté, les niveaux d'androgènes surrénaliens augmentant progressivement jusqu'à atteindre des niveaux maximaux chez les jeunes adultes, vers l'âge de 20 ans[1],[5].
-Les niveaux circulants de DHEA-S culminent spécifiquement chez l'homme vers l'âge de 19 ou 20 ans chez les femmes et vers l'âge de 20 à 24 ans chez les hommes[2]. Les niveaux de corticostéroïdes comme le cortisol ne changent pas avec l'adrénarche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adrénarche survient entre 6 et 20 ans,. Après la première année de vie, les glandes surrénales sécrètent de très faibles niveaux d'androgènes surrénaliens.
+L'adrénarche débute en moyenne entre 5 et 8 ans chez les filles et entre 7 et 11 ans chez les garçons, et précède la puberté d'environ 2 ans. Contrairement aux changements physiques qui se produisent pendant la puberté, l'adrénarche est avant tout un stade de développement émotionnel et psychologique.
+Elle se poursuit tout au long de la puberté, les niveaux d'androgènes surrénaliens augmentant progressivement jusqu'à atteindre des niveaux maximaux chez les jeunes adultes, vers l'âge de 20 ans,.
+Les niveaux circulants de DHEA-S culminent spécifiquement chez l'homme vers l'âge de 19 ou 20 ans chez les femmes et vers l'âge de 20 à 24 ans chez les hommes. Les niveaux de corticostéroïdes comme le cortisol ne changent pas avec l'adrénarche.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adr%C3%A9narche</t>
+          <t>Adrénarche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Rôle dans la puberté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un initiateur de l'adrénarche n'a pas encore été identifié. Des chercheurs ont tenté en vain d'identifier un nouveau peptide hypophysaire, appelé "hormone de stimulation des androgènes surrénaliens".
 D'autres ont proposé que la maturation surrénalienne soit un processus graduel intrinsèque aux glandes surrénales qui n'a pas de déclencheur distinct.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adr%C3%A9narche</t>
+          <t>Adrénarche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +598,14 @@
           <t>Prématurité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adrénarche prématurée est la cause la plus fréquente d'apparition précoce de poils pubiens (« pubarche prématurée ») chez l'enfant. Chez une grande proportion d'enfants, il semble s'agir d'une variation du développement normal ne nécessitant aucun traitement. Cependant, il existe trois problèmes cliniques liés à l'adrénarche prématurée.
 Premièrement, lorsque les poils pubiens apparaissent à un âge inhabituellement précoce chez un enfant, l'adrénarche prématurée doit être distinguée de la véritable puberté centrale précoce, de l'hyperplasie congénitale des surrénales et des tumeurs productrices d'androgènes des surrénales ou des gonades. Les endocrinologues pédiatriques le font en démontrant des niveaux avancés de DHEA-S et d'autres androgènes surrénaliens, avec des niveaux prépubères de gonadotrophines et de stéroïdes sexuels gonadiques.
 Deuxièmement, il existe certaines preuves que l'adrénarche prématurée peut indiquer qu'il y avait une anomalie de l'environnement énergétique intra-utérin et de la croissance. Comme mentionné ci-dessus, l'adrénarche prématurée survient plus souvent chez les enfants présentant un retard de croissance intra-utérin et chez les enfants en surpoids. Certaines de ces mêmes études ont démontré que certaines filles qui présentent une adrénarche prématurée peuvent continuer à avoir des niveaux excessifs d'androgènes à l'adolescence. Cela peut entraîner un hirsutisme ou des irrégularités menstruelles dues à l'anovulation appelée syndrome des ovaires polykystiques.
-Troisièmement, au moins un rapport [7] a trouvé une incidence accrue de problèmes de comportement et scolaires dans un groupe d'enfants atteints d'adrénarche prématurée par rapport à un groupe témoin par ailleurs similaire. À ce jour, une telle relation n'a été ni confirmée ni expliquée et il n'y a pas d'implications évidentes en matière de gestion.
+Troisièmement, au moins un rapport  a trouvé une incidence accrue de problèmes de comportement et scolaires dans un groupe d'enfants atteints d'adrénarche prématurée par rapport à un groupe témoin par ailleurs similaire. À ce jour, une telle relation n'a été ni confirmée ni expliquée et il n'y a pas d'implications évidentes en matière de gestion.
 </t>
         </is>
       </c>
